--- a/CoreRulebook/Data/hexes.xlsx
+++ b/CoreRulebook/Data/hexes.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">POW</t>
   </si>
   <si>
-    <t xml:space="preserve">Fills a 5m target area with an acidic cloud that does 1 acid damage per turn + 1 for each point over the casting check. Cloud lasts for 10 cycles, unless in a confined space, where it lasts until removed by other means. </t>
+    <t xml:space="preserve">Fills a 5m target area with an acidic cloud that does (1+ CV – DV) acid damage per turn. Cloud lasts for 10 cycles, unless in a confined space, where it lasts until removed by other means. </t>
   </si>
   <si>
     <t xml:space="preserve">Confundus Charm \\ {\it confundo}</t>
@@ -65,7 +65,7 @@
   </si>
   <si>
     <t xml:space="preserve">Do 2 Fatigue damage.
-Target performs a Resist Magic check, if it fails, then target acquires the Confused status.  </t>
+Target performs a Resist Magic check against casting check, if it fails, then target acquires the Confused status.  If it succeeds, do 5 fatigue damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Green Sparks \\ {\it  verdimillious}</t>
@@ -77,8 +77,8 @@
     <t xml:space="preserve">FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Emits 5 green sparks from your wand, which can be made to strike at the enemy. 
-Each spark does one force damage per 1 check point over the difficulty value. Each power point added gives another spark. </t>
+    <t xml:space="preserve">Emits (5+PP) green sparks from your wand, which can be made to strike at the enemy. 
+Each spark does (1 + CV – DV) force damage.</t>
   </si>
   <si>
     <t xml:space="preserve">KnockBack Jinx \\ {\it  flipendo}</t>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">POW </t>
   </si>
   <si>
-    <t xml:space="preserve">Causes 2 points of force damage, and knocks the target back 1 metre. Each power point adds one metre to the knockback distance and 1 damage point. May need to consider impace (see `falling’)</t>
+    <t xml:space="preserve">Causes 2 points of force damage, and knocks the target back 1 metre. Each power point adds one metre to the knockback distance and 1 damage point. May need to consider impact (see `falling’)</t>
   </si>
   <si>
     <t xml:space="preserve">Stinging Hex \\ {\it  ictus }</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">SPR</t>
   </si>
   <si>
-    <t xml:space="preserve">Stings the target for 1 poison damage + 1 for each check point over the difficulty value. </t>
+    <t xml:space="preserve">Stings the target for (2 + CV – DV) poison damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Trip jinx \\ {\it lubricor}</t>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">FIN </t>
   </si>
   <si>
-    <t xml:space="preserve">If the target is moving this turn cycle, they go sprawling onto the ground taking 1d4 of damage. They cannot perform a spell until they get up, which takes a turn cycle. They may, however, crawl. </t>
+    <t xml:space="preserve">If the target is moving this turn cycle and fails an ATH Resist check, they go sprawling onto the ground taking 1d4 bludgeoning damage, and take the `Prone Position’ status.</t>
   </si>
   <si>
     <t xml:space="preserve">Arctic Chill Hex \\ {\it gelidus}</t>
@@ -114,14 +114,14 @@
     <t xml:space="preserve">2: Novice</t>
   </si>
   <si>
-    <t xml:space="preserve">An area of 2 metres (+1 for every power point dedicated) around the target is plunged into absolute cold. Those caught in the region take 2d4 of cold damage, and apply the mild Frostbite status effect. </t>
+    <t xml:space="preserve">An area of (2 + PP) metres around the target is decreased in temperature by 50 degrees celsius. Those caught in the region take (1+PP)d4 of cold damage, and apply the mild Frostbite status effect. </t>
   </si>
   <si>
     <t xml:space="preserve">Bat Bogey Hex \\ {\it  vespernasum}</t>
   </si>
   <si>
-    <t xml:space="preserve">Causes the mucus in the target{\apos}s nose to gain sentience, take the form of a small bat, and attack the target. 
-Each bat-bogey does 1d4 +2 points of piercing damage per turn for 3 turns (unless removed). Each power point adds one bat. </t>
+    <t xml:space="preserve">Causes the mucus in the target{\apos}s nose to gain sentience, take the form of a (1+PP) small bats, and attack the target. 
+Each bat-bogey does 1d4 +2 points of acid damage per turn for 3 turns (unless removed).  </t>
   </si>
   <si>
     <t xml:space="preserve">Body-Bind Curse  \\ {\it petrificus totalus}</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Cascading Jinx  \\ {\it unda delor}</t>
   </si>
   <si>
-    <t xml:space="preserve">Fires multiple bursts of energy that do 3+1d4 force damage to up to 3 targets. 
+    <t xml:space="preserve">Fires multiple bursts of energy that do 3+1d4 force damage to up to (3+PP) targets. 
 Each power point added adds +1 damage, and +1 target. </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
   </si>
   <si>
     <t xml:space="preserve">Conjures a stream of corrosive, poisonous acid from the tip of your wand. Dissolves objects, clothes and skin alike. 
-Does 4 + 1d6 acid damage</t>
+Does 4 + (1+PP)d6 acid damage</t>
   </si>
   <si>
     <t xml:space="preserve">Blasting Curse  \\ {\it  confringo}</t>
@@ -213,7 +213,7 @@
     <t xml:space="preserve">Hex of the Recurring Light \\ {\it catena}</t>
   </si>
   <si>
-    <t xml:space="preserve">A beam of blinding light shoots from your wand, striking one target before moving onto the next. Targets take 1d8 of fire damage (doubled if they are UnLife or Undead) and are Blinded if they fail a resist magic check. Each target has the chance to avoid/counterspell this spell, the next target only recieves the beam If the previous one was hit. 3 targets may be hit, +1 for every power point dedicated to the spell. </t>
+    <t xml:space="preserve">A beam of blinding light shoots from your wand, striking one target before moving onto the next. Targets take 2d6 of fire damage (doubled if they are UnLife or Undead) and are Blinded if they fail a resist magic check. Each target has the chance to avoid/counterspell this spell, the next target only recieves the beam If the previous one was hit. 3 targets may be hit, +1 for every power point dedicated to the spell. </t>
   </si>
   <si>
     <t xml:space="preserve">Impediment Jinx  \\ {\it impedimentia}</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">Object Swarm Hex  \\ {\it  Oppugno}</t>
   </si>
   <si>
-    <t xml:space="preserve">Causes nearby objects to hurl themselves at the target, doing 1d10 + 2 of bludgeoning damage.</t>
+    <t xml:space="preserve">Causes 3 nearby objects to hurl themselves at the target. Each object does 1d8 bludgeoning damage. Each power point dedicated gives 3 additional objects.</t>
   </si>
   <si>
     <t xml:space="preserve">Scrambling Curse \\ {\it traferus}</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">EMP \\ (understand other)</t>
   </si>
   <si>
-    <t xml:space="preserve">The target has their abilities scrambled for the duration of the curse. The GM randomly reassigns the character attributes (so FIN would take on the ATH value for the duration of the curse). Lasts for 5 turns, +1 for every power point dedicated to the spell. </t>
+    <t xml:space="preserve">The target has their abilities scrambled for the duration of the curse. The GM randomly reassigns the character attributes. Lasts for 5 turns, +1 for every power point dedicated to the spell. </t>
   </si>
   <si>
     <t xml:space="preserve">Dragon{\apos}s Breath Curse \\ {\it draco flammor}</t>
@@ -243,20 +243,20 @@
     <t xml:space="preserve">4: Expert</t>
   </si>
   <si>
-    <t xml:space="preserve">A torrent of flame erupts from the tip of your wand for up to 10 metres in front of the caster, incinerating everything in its path. Water cannot quench this fire, and it causes 1d10 worth of dimage damage, and applies a Severe Burn to whatever it comes into contact with. </t>
+    <t xml:space="preserve">A torrent of flame erupts from the tip of your wand for up to 10 metres in front of the caster, incinerating everything in its path. Water cannot quench this fire, and it causes 2d12 worth of fire damage, and applies a Severe Burn to whatever it comes into contact with. </t>
   </si>
   <si>
     <t xml:space="preserve">Expulsion Curse  \\ {\it  expulso}</t>
   </si>
   <si>
     <t xml:space="preserve">Launches a magical bolt at the target which, if it makes contact, causes the object to violently tear itself apart. 
-Does 1d10 + 6 force damage, plus 1 for every power point dedicated to the spell. </t>
+Does (1 + PP)d8 + 6 force damage</t>
   </si>
   <si>
     <t xml:space="preserve">Meteor Strike \\ {\it bothynus} </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon flaming rocks from the heavens, doing 1d8 bludgeoning damage and 1d6 fire damage to all enemies in a 10m radius + 2m for every power point dedicated.</t>
+    <t xml:space="preserve">Summon flaming rocks from the heavens, doing 2d8 bludgeoning damage and 4d6 fire damage to all enemies in a 10m radius + 2m for every power point dedicated.</t>
   </si>
   <si>
     <t xml:space="preserve">Patronus Charm  \\ {\it  Expecto Patronus}</t>
@@ -434,11 +434,11 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -513,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -536,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -582,7 +582,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
@@ -628,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>30</v>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>32</v>
@@ -835,7 +835,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>52</v>
@@ -846,7 +846,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
@@ -961,7 +961,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>54</v>
@@ -1180,7 +1180,7 @@
         <v>42</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>89</v>
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>91</v>
@@ -1249,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>96</v>

--- a/CoreRulebook/Data/hexes.xlsx
+++ b/CoreRulebook/Data/hexes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -139,7 +139,10 @@
     <t xml:space="preserve">CC</t>
   </si>
   <si>
-    <t xml:space="preserve">A target individual acquires the Confused status and takes 5 fatigue damage. On a successful Resist, no status is applied. </t>
+    <t xml:space="preserve">If target fails to resist, they lose their next turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Expert level caster makes the target lose the next 1d4 turns. </t>
   </si>
   <si>
     <t xml:space="preserve">Green Sparks</t>
@@ -260,7 +263,7 @@
     <t xml:space="preserve">Dexterity</t>
   </si>
   <si>
-    <t xml:space="preserve">Produce (3+PP) magical darts that fly towards the targets. Each dart does 2+1d4 force damage, and the swarm may be directed to strike multiple targets, or the same target. </t>
+    <t xml:space="preserve">Produce (3+PP) magical darts that fly towards the targets. Each dart does 1+1d4 force damage, and the swarm may be directed to strike multiple targets, or the same target. </t>
   </si>
   <si>
     <r>
@@ -995,6 +998,57 @@
   </si>
   <si>
     <t xml:space="preserve">Summons a stormcloud which hovers above the battlefield, emitting lightning bolts which strike all your enemies within a 25 metre radius once per turn, dealing 5d6 points of unavoidable electric damage. Targets may resist once per turn to receive half damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrum maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst you maintain concentration, a bolt of energy arcs from the end of your wand, doing (4+PP)d6 electrical damage per turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bundus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignite a target at a range of up to 10m, doing 1d4 fire damage (negated on resist)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a Novice level caster or greater, may add 1d4 damage for every 4 levels above 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1135,12 +1189,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1150,25 +1204,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I29" activeCellId="0" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="87.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="87.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="26.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
   </cols>
@@ -1255,7 +1309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>5</v>
@@ -1295,19 +1349,22 @@
       <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
@@ -1319,10 +1376,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>4</v>
@@ -1330,24 +1387,24 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
@@ -1359,34 +1416,34 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
@@ -1398,10 +1455,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>2</v>
@@ -1409,18 +1466,18 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1439,33 +1496,33 @@
         <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
@@ -1477,10 +1534,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>5</v>
@@ -1488,24 +1545,24 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
@@ -1517,36 +1574,36 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
@@ -1558,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="n">
@@ -1567,25 +1624,25 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>2</v>
@@ -1594,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>6</v>
@@ -1609,18 +1666,18 @@
         <v>8</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -1636,37 +1693,37 @@
         <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="n">
         <v>7</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -1678,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>6</v>
@@ -1689,21 +1746,21 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
@@ -1715,40 +1772,40 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>10</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>2</v>
@@ -1760,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>6</v>
@@ -1770,21 +1827,21 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
@@ -1799,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>6</v>
@@ -1807,24 +1864,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
@@ -1843,21 +1900,21 @@
         <v>7</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L17" s="3" t="n">
         <v>14</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -1873,10 +1930,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>8</v>
@@ -1888,21 +1945,21 @@
         <v>29</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
@@ -1917,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>7</v>
@@ -1925,24 +1982,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>25</v>
@@ -1954,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="n">
@@ -1967,21 +2024,21 @@
         <v>29</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>25</v>
@@ -1993,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="n">
@@ -2002,21 +2059,21 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="n">
@@ -2029,36 +2086,36 @@
         <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" s="3" t="n">
         <v>7</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="3" t="n">
         <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0</v>
@@ -2070,40 +2127,40 @@
         <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>3</v>
@@ -2112,33 +2169,33 @@
         <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J24" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="n">
@@ -2151,30 +2208,30 @@
         <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" s="3" t="n">
         <v>10</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>12</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
@@ -2190,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J26" s="3" t="n">
         <v>8</v>
@@ -2205,25 +2262,25 @@
         <v>10</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>4</v>
@@ -2235,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" s="3" t="n">
         <v>10</v>
@@ -2243,18 +2300,18 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="n">
@@ -2267,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" s="3" t="n">
         <v>12</v>
@@ -2278,25 +2335,25 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>4</v>
@@ -2305,10 +2362,10 @@
         <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29" s="3" t="n">
         <v>10</v>
@@ -2316,15 +2373,15 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
@@ -2340,32 +2397,32 @@
         <v>11</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="n">
         <v>11</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="n">
@@ -2378,10 +2435,10 @@
         <v>19</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J31" s="3" t="n">
         <v>14</v>
@@ -2393,15 +2450,15 @@
         <v>29</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
@@ -2420,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J32" s="3" t="n">
         <v>10</v>
@@ -2428,15 +2485,15 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
@@ -2455,30 +2512,30 @@
         <v>19</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J33" s="3" t="n">
         <v>15</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>13</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -2491,22 +2548,104 @@
         <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
